--- a/medicine/Autisme/Le_Cerveau_d'Hugo/Le_Cerveau_d'Hugo.xlsx
+++ b/medicine/Autisme/Le_Cerveau_d'Hugo/Le_Cerveau_d'Hugo.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Le_Cerveau_d%27Hugo</t>
+          <t>Le_Cerveau_d'Hugo</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le Cerveau d'Hugo est un documentaire-fiction français réalisé par Sophie Révil en 2012, portant sur l'autisme. Il croise des témoignages d'authentiques autistes avec une fiction retraçant la vie d'un autiste, Hugo, depuis l'enfance jusqu'à l'âge adulte, en dépeignant les difficultés qu'il rencontre ainsi que son entourage.
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Le_Cerveau_d%27Hugo</t>
+          <t>Le_Cerveau_d'Hugo</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Production : Elzevir Films / Escazal FilmsAvec la participation de France Télévisions, Planète +
 Avec la voix de Sophie Marceau
@@ -533,7 +547,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Le_Cerveau_d%27Hugo</t>
+          <t>Le_Cerveau_d'Hugo</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -551,7 +565,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Thomas Coumans
 Arly Jover
